--- a/data/magnetic.xlsx
+++ b/data/magnetic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mykad\Desktop\space_environment_lab04\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFA381C-FDA0-4C4F-988D-41A2CE9E32F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24C49D-864A-4754-B86E-A64AB9A0C8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="1446">
   <si>
     <t>B</t>
   </si>
@@ -4693,10 +4693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1500"/>
+  <dimension ref="A1:F1441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E1448" sqref="E1448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33524,1186 +33524,6 @@
         <v>-2.0428799999999998</v>
       </c>
     </row>
-    <row r="1442" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1442" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1442" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1442">
-        <v>7.2538400000000003</v>
-      </c>
-      <c r="D1442">
-        <v>-6.9102800000000002</v>
-      </c>
-      <c r="E1442">
-        <v>0.79521500000000001</v>
-      </c>
-      <c r="F1442">
-        <v>-2.0548600000000001</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1443" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1443" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1443">
-        <v>7.2638600000000002</v>
-      </c>
-      <c r="D1443">
-        <v>-6.91812</v>
-      </c>
-      <c r="E1443">
-        <v>0.81723800000000002</v>
-      </c>
-      <c r="F1443">
-        <v>-2.0561600000000002</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1444" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1444" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1444">
-        <v>7.2313499999999999</v>
-      </c>
-      <c r="D1444">
-        <v>-6.8773</v>
-      </c>
-      <c r="E1444">
-        <v>0.95292500000000002</v>
-      </c>
-      <c r="F1444">
-        <v>-2.0114299999999998</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1445" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1445" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1445">
-        <v>7.2723500000000003</v>
-      </c>
-      <c r="D1445">
-        <v>-6.9494999999999996</v>
-      </c>
-      <c r="E1445">
-        <v>1.0817099999999999</v>
-      </c>
-      <c r="F1445">
-        <v>-1.8315999999999999</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1446" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1446" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1446">
-        <v>7.3238000000000003</v>
-      </c>
-      <c r="D1446">
-        <v>-7.0023900000000001</v>
-      </c>
-      <c r="E1446">
-        <v>1.23448</v>
-      </c>
-      <c r="F1446">
-        <v>-1.74827</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1447" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1447" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1447">
-        <v>7.28383</v>
-      </c>
-      <c r="D1447">
-        <v>-7.0351699999999999</v>
-      </c>
-      <c r="E1447">
-        <v>0.87403900000000001</v>
-      </c>
-      <c r="F1447">
-        <v>-1.6651499999999999</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1448" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1448" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1448">
-        <v>7.2660200000000001</v>
-      </c>
-      <c r="D1448">
-        <v>-6.9906300000000003</v>
-      </c>
-      <c r="E1448">
-        <v>0.90734199999999998</v>
-      </c>
-      <c r="F1448">
-        <v>-1.7525200000000001</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1449" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1449" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1449">
-        <v>7.1879900000000001</v>
-      </c>
-      <c r="D1449">
-        <v>-6.9199400000000004</v>
-      </c>
-      <c r="E1449">
-        <v>0.74704999999999999</v>
-      </c>
-      <c r="F1449">
-        <v>-1.78884</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1450" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1450" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1450">
-        <v>7.1883299999999997</v>
-      </c>
-      <c r="D1450">
-        <v>-6.9169600000000004</v>
-      </c>
-      <c r="E1450">
-        <v>1.0128900000000001</v>
-      </c>
-      <c r="F1450">
-        <v>-1.66978</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1451" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1451" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1451">
-        <v>7.16791</v>
-      </c>
-      <c r="D1451">
-        <v>-6.9032799999999996</v>
-      </c>
-      <c r="E1451">
-        <v>0.97145999999999999</v>
-      </c>
-      <c r="F1451">
-        <v>-1.6576</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1452" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1452" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1452">
-        <v>7.1436000000000002</v>
-      </c>
-      <c r="D1452">
-        <v>-6.8795599999999997</v>
-      </c>
-      <c r="E1452">
-        <v>1.0288299999999999</v>
-      </c>
-      <c r="F1452">
-        <v>-1.62249</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1453" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1453" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1453">
-        <v>7.1436000000000002</v>
-      </c>
-      <c r="D1453">
-        <v>-6.8795599999999997</v>
-      </c>
-      <c r="E1453">
-        <v>1.0288299999999999</v>
-      </c>
-      <c r="F1453">
-        <v>-1.62249</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1454" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1454" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1454">
-        <v>7.1108799999999999</v>
-      </c>
-      <c r="D1454">
-        <v>-6.8481199999999998</v>
-      </c>
-      <c r="E1454">
-        <v>0.97669099999999998</v>
-      </c>
-      <c r="F1454">
-        <v>-1.64439</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1455" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1455" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1455">
-        <v>7.0721400000000001</v>
-      </c>
-      <c r="D1455">
-        <v>-6.7762900000000004</v>
-      </c>
-      <c r="E1455">
-        <v>1.09493</v>
-      </c>
-      <c r="F1455">
-        <v>-1.6995199999999999</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1456" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1456" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1456">
-        <v>7.0362299999999998</v>
-      </c>
-      <c r="D1456">
-        <v>-6.7438200000000004</v>
-      </c>
-      <c r="E1456">
-        <v>1.1512500000000001</v>
-      </c>
-      <c r="F1456">
-        <v>-1.63923</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1457" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1457" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1457">
-        <v>7.0210100000000004</v>
-      </c>
-      <c r="D1457">
-        <v>-6.6438699999999997</v>
-      </c>
-      <c r="E1457">
-        <v>1.34636</v>
-      </c>
-      <c r="F1457">
-        <v>-1.81863</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1458" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1458" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1458">
-        <v>7.0678799999999997</v>
-      </c>
-      <c r="D1458">
-        <v>-6.6630099999999999</v>
-      </c>
-      <c r="E1458">
-        <v>1.3854299999999999</v>
-      </c>
-      <c r="F1458">
-        <v>-1.9005799999999999</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1459" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1459" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1459">
-        <v>7.00631</v>
-      </c>
-      <c r="D1459">
-        <v>-6.6499699999999997</v>
-      </c>
-      <c r="E1459">
-        <v>1.2120899999999999</v>
-      </c>
-      <c r="F1459">
-        <v>-1.8149999999999999</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1460" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1460" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1460">
-        <v>6.8620200000000002</v>
-      </c>
-      <c r="D1460">
-        <v>-6.56229</v>
-      </c>
-      <c r="E1460">
-        <v>1.03674</v>
-      </c>
-      <c r="F1460">
-        <v>-1.6819900000000001</v>
-      </c>
-    </row>
-    <row r="1461" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1461" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1461" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1461">
-        <v>6.8019299999999996</v>
-      </c>
-      <c r="D1461">
-        <v>-6.4081700000000001</v>
-      </c>
-      <c r="E1461">
-        <v>1.1783999999999999</v>
-      </c>
-      <c r="F1461">
-        <v>-1.89516</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1462" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1462" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1462">
-        <v>6.8010299999999999</v>
-      </c>
-      <c r="D1462">
-        <v>-6.3797199999999998</v>
-      </c>
-      <c r="E1462">
-        <v>1.3995</v>
-      </c>
-      <c r="F1462">
-        <v>-1.87802</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1463" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1463" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1463">
-        <v>6.8178200000000002</v>
-      </c>
-      <c r="D1463">
-        <v>-6.3820399999999999</v>
-      </c>
-      <c r="E1463">
-        <v>1.42608</v>
-      </c>
-      <c r="F1463">
-        <v>-1.9218299999999999</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1464" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1464" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1464">
-        <v>6.7283299999999997</v>
-      </c>
-      <c r="D1464">
-        <v>-6.22987</v>
-      </c>
-      <c r="E1464">
-        <v>1.5885400000000001</v>
-      </c>
-      <c r="F1464">
-        <v>-1.97048</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1465" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1465" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1465">
-        <v>6.6933999999999996</v>
-      </c>
-      <c r="D1465">
-        <v>-6.1600999999999999</v>
-      </c>
-      <c r="E1465">
-        <v>1.768</v>
-      </c>
-      <c r="F1465">
-        <v>-1.9065799999999999</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1466" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1466" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1466">
-        <v>6.60846</v>
-      </c>
-      <c r="D1466">
-        <v>-6.0184699999999998</v>
-      </c>
-      <c r="E1466">
-        <v>1.7067399999999999</v>
-      </c>
-      <c r="F1466">
-        <v>-2.0977000000000001</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1467" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1467" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1467">
-        <v>6.5242500000000003</v>
-      </c>
-      <c r="D1467">
-        <v>-5.9201699999999997</v>
-      </c>
-      <c r="E1467">
-        <v>1.2786599999999999</v>
-      </c>
-      <c r="F1467">
-        <v>-2.4041299999999999</v>
-      </c>
-    </row>
-    <row r="1468" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1468" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1468" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1468">
-        <v>6.1812699999999996</v>
-      </c>
-      <c r="D1468">
-        <v>-5.6623299999999999</v>
-      </c>
-      <c r="E1468">
-        <v>1.56846</v>
-      </c>
-      <c r="F1468">
-        <v>-1.80619</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1469" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1469" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1469">
-        <v>6.0581500000000004</v>
-      </c>
-      <c r="D1469">
-        <v>-5.6647299999999996</v>
-      </c>
-      <c r="E1469">
-        <v>1.7130799999999999</v>
-      </c>
-      <c r="F1469">
-        <v>-1.2377800000000001</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1470" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1470" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1470">
-        <v>5.9320599999999999</v>
-      </c>
-      <c r="D1470">
-        <v>-5.3787799999999999</v>
-      </c>
-      <c r="E1470">
-        <v>1.85615</v>
-      </c>
-      <c r="F1470">
-        <v>-1.66381</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1471" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1471" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1471">
-        <v>5.9888300000000001</v>
-      </c>
-      <c r="D1471">
-        <v>-5.4301399999999997</v>
-      </c>
-      <c r="E1471">
-        <v>1.7599499999999999</v>
-      </c>
-      <c r="F1471">
-        <v>-1.80494</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1472" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1472" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1472">
-        <v>6.0382300000000004</v>
-      </c>
-      <c r="D1472">
-        <v>-5.4436799999999996</v>
-      </c>
-      <c r="E1472">
-        <v>1.69425</v>
-      </c>
-      <c r="F1472">
-        <v>-1.9847600000000001</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1473" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1473" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1473">
-        <v>6.2143800000000002</v>
-      </c>
-      <c r="D1473">
-        <v>-5.8020899999999997</v>
-      </c>
-      <c r="E1473">
-        <v>1.32142</v>
-      </c>
-      <c r="F1473">
-        <v>-1.75824</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1474" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1474" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1474">
-        <v>6.2318300000000004</v>
-      </c>
-      <c r="D1474">
-        <v>-5.7358700000000002</v>
-      </c>
-      <c r="E1474">
-        <v>1.3170200000000001</v>
-      </c>
-      <c r="F1474">
-        <v>-2.0390100000000002</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1475" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1475" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1475">
-        <v>6.12303</v>
-      </c>
-      <c r="D1475">
-        <v>-5.8389800000000003</v>
-      </c>
-      <c r="E1475">
-        <v>0.79230999999999996</v>
-      </c>
-      <c r="F1475">
-        <v>-1.46421</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1476" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1476" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1476">
-        <v>6.2894600000000001</v>
-      </c>
-      <c r="D1476">
-        <v>-6.1950500000000002</v>
-      </c>
-      <c r="E1476">
-        <v>0.58287299999999997</v>
-      </c>
-      <c r="F1476">
-        <v>-0.77107899999999996</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1477" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1477" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1477">
-        <v>6.1465899999999998</v>
-      </c>
-      <c r="D1477">
-        <v>-5.8311000000000002</v>
-      </c>
-      <c r="E1477">
-        <v>1.20417</v>
-      </c>
-      <c r="F1477">
-        <v>-1.4086399999999999</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1478" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1478" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1478">
-        <v>6.4354100000000001</v>
-      </c>
-      <c r="D1478">
-        <v>-6.0437200000000004</v>
-      </c>
-      <c r="E1478">
-        <v>1.67496</v>
-      </c>
-      <c r="F1478">
-        <v>-1.3159700000000001</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1479" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1479" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1479">
-        <v>6.5216700000000003</v>
-      </c>
-      <c r="D1479">
-        <v>-5.9923299999999999</v>
-      </c>
-      <c r="E1479">
-        <v>2.0772699999999999</v>
-      </c>
-      <c r="F1479">
-        <v>-1.4360200000000001</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1480" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1480" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1480">
-        <v>6.24132</v>
-      </c>
-      <c r="D1480">
-        <v>-5.6711499999999999</v>
-      </c>
-      <c r="E1480">
-        <v>1.7454099999999999</v>
-      </c>
-      <c r="F1480">
-        <v>-1.82029</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1481" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1481" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1481">
-        <v>6.20174</v>
-      </c>
-      <c r="D1481">
-        <v>-5.8647</v>
-      </c>
-      <c r="E1481">
-        <v>1.64541</v>
-      </c>
-      <c r="F1481">
-        <v>-1.05186</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1482" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1482" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1482">
-        <v>6.1788800000000004</v>
-      </c>
-      <c r="D1482">
-        <v>-5.9720000000000004</v>
-      </c>
-      <c r="E1482">
-        <v>1.21025</v>
-      </c>
-      <c r="F1482">
-        <v>-0.97581099999999998</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1483" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1483" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1483">
-        <v>6.1530500000000004</v>
-      </c>
-      <c r="D1483">
-        <v>-5.8676399999999997</v>
-      </c>
-      <c r="E1483">
-        <v>1.28291</v>
-      </c>
-      <c r="F1483">
-        <v>-1.3057099999999999</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1484" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1484" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1484">
-        <v>6.55999</v>
-      </c>
-      <c r="D1484">
-        <v>-6.4660200000000003</v>
-      </c>
-      <c r="E1484">
-        <v>0.72517900000000002</v>
-      </c>
-      <c r="F1484">
-        <v>-0.74320699999999995</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1485" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1485" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1485">
-        <v>6.6629500000000004</v>
-      </c>
-      <c r="D1485">
-        <v>-6.5349000000000004</v>
-      </c>
-      <c r="E1485">
-        <v>0.807531</v>
-      </c>
-      <c r="F1485">
-        <v>-0.97831299999999999</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1486" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1486" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1486">
-        <v>6.6297300000000003</v>
-      </c>
-      <c r="D1486">
-        <v>-6.3693999999999997</v>
-      </c>
-      <c r="E1486">
-        <v>1.23428</v>
-      </c>
-      <c r="F1486">
-        <v>-1.34897</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1487" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1487" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1487">
-        <v>6.6497599999999997</v>
-      </c>
-      <c r="D1487">
-        <v>-6.4097099999999996</v>
-      </c>
-      <c r="E1487">
-        <v>1.3113999999999999</v>
-      </c>
-      <c r="F1487">
-        <v>-1.1446099999999999</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1488" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1488" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1488">
-        <v>6.7871300000000003</v>
-      </c>
-      <c r="D1488">
-        <v>-6.6362800000000002</v>
-      </c>
-      <c r="E1488">
-        <v>1.34036</v>
-      </c>
-      <c r="F1488">
-        <v>-0.43447000000000002</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1489" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1489" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1489">
-        <v>6.7648799999999998</v>
-      </c>
-      <c r="D1489">
-        <v>-6.6245099999999999</v>
-      </c>
-      <c r="E1489">
-        <v>1.21418</v>
-      </c>
-      <c r="F1489">
-        <v>-0.599387</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1490" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1490" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1490">
-        <v>6.5007599999999996</v>
-      </c>
-      <c r="D1490">
-        <v>-6.0089800000000002</v>
-      </c>
-      <c r="E1490">
-        <v>1.52746</v>
-      </c>
-      <c r="F1490">
-        <v>-1.5580400000000001</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1491" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1491" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1491">
-        <v>6.0352300000000003</v>
-      </c>
-      <c r="D1491">
-        <v>-4.5098000000000003</v>
-      </c>
-      <c r="E1491">
-        <v>2.1012900000000001</v>
-      </c>
-      <c r="F1491">
-        <v>-3.32463</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1492" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1492" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1492">
-        <v>5.9935099999999997</v>
-      </c>
-      <c r="D1492">
-        <v>-4.1576199999999996</v>
-      </c>
-      <c r="E1492">
-        <v>2.2647400000000002</v>
-      </c>
-      <c r="F1492">
-        <v>-3.6586699999999999</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1493" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1493" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1493">
-        <v>6.1119500000000002</v>
-      </c>
-      <c r="D1493">
-        <v>-4.5547599999999999</v>
-      </c>
-      <c r="E1493">
-        <v>2.3122600000000002</v>
-      </c>
-      <c r="F1493">
-        <v>-3.32226</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1494" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1494" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1494">
-        <v>6.0206</v>
-      </c>
-      <c r="D1494">
-        <v>-4.3486599999999997</v>
-      </c>
-      <c r="E1494">
-        <v>2.1182699999999999</v>
-      </c>
-      <c r="F1494">
-        <v>-3.5697199999999998</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1495" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1495" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1495">
-        <v>6.0451600000000001</v>
-      </c>
-      <c r="D1495">
-        <v>-3.6099899999999998</v>
-      </c>
-      <c r="E1495">
-        <v>2.1397900000000001</v>
-      </c>
-      <c r="F1495">
-        <v>-4.3436899999999996</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1496" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1496" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1496">
-        <v>5.9668900000000002</v>
-      </c>
-      <c r="D1496">
-        <v>-3.12486</v>
-      </c>
-      <c r="E1496">
-        <v>2.1795</v>
-      </c>
-      <c r="F1496">
-        <v>-4.5902799999999999</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1497" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1497" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1497">
-        <v>6.0427900000000001</v>
-      </c>
-      <c r="D1497">
-        <v>-3.33988</v>
-      </c>
-      <c r="E1497">
-        <v>2.32863</v>
-      </c>
-      <c r="F1497">
-        <v>-4.4586399999999999</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1498" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1498" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1498">
-        <v>6.2431799999999997</v>
-      </c>
-      <c r="D1498">
-        <v>-3.016</v>
-      </c>
-      <c r="E1498">
-        <v>2.9045700000000001</v>
-      </c>
-      <c r="F1498">
-        <v>-4.4990899999999998</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1499" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1499" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1499">
-        <v>6.1329599999999997</v>
-      </c>
-      <c r="D1499">
-        <v>-3.4525000000000001</v>
-      </c>
-      <c r="E1499">
-        <v>2.3638699999999999</v>
-      </c>
-      <c r="F1499">
-        <v>-4.4649299999999998</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1500" s="2">
-        <v>41646</v>
-      </c>
-      <c r="B1500" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1500">
-        <v>6.0928500000000003</v>
-      </c>
-      <c r="D1500">
-        <v>-3.3977499999999998</v>
-      </c>
-      <c r="E1500">
-        <v>2.14832</v>
-      </c>
-      <c r="F1500">
-        <v>-4.5452399999999997</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
